--- a/TestePrograma.xlsx
+++ b/TestePrograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A6081A-D4CA-410C-8187-97CD6CF2BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365D89B-0B2E-40B6-B742-D4D62522E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9E1E843-0DE0-41D5-B814-FE77CE47114B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -77,28 +77,10 @@
     <t>Nome mãe</t>
   </si>
   <si>
-    <t>TRANSPORTADORA DEMETRIUS LTDA</t>
-  </si>
-  <si>
-    <t>REDE IBIUNA DE RADIODIFUSAO LTDA</t>
-  </si>
-  <si>
-    <t>74.630.930/0001-65</t>
-  </si>
-  <si>
-    <t>01.734.040/0001-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO NOGUEIRA COSTA </t>
-  </si>
-  <si>
-    <t>SÃO PAULO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Fisica</t>
+    <t>COTIMOVEIS ELETRODOMESTICOS E MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>51.453.520/0001-90</t>
   </si>
 </sst>
 </file>
@@ -518,7 +500,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -589,7 +571,9 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6">
+        <v>36452</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -597,19 +581,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -618,28 +596,14 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>528935352</v>
-      </c>
-      <c r="C4" s="1">
-        <v>49977235848</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6">
-        <v>36488</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>

--- a/TestePrograma.xlsx
+++ b/TestePrograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365D89B-0B2E-40B6-B742-D4D62522E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86CB77-F46C-4369-9F90-66F97FADED22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9E1E843-0DE0-41D5-B814-FE77CE47114B}"/>
   </bookViews>
@@ -77,17 +77,17 @@
     <t>Nome mãe</t>
   </si>
   <si>
-    <t>COTIMOVEIS ELETRODOMESTICOS E MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>51.453.520/0001-90</t>
+    <t xml:space="preserve"> 04.712.500/0001-07</t>
+  </si>
+  <si>
+    <t>MICROSOFT DO BRASIL IMPORTACAO E COMERCIO DE SOFTWARE E VIDEO GAMES LTDA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -183,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +507,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,12 +564,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
